--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\pl_hesablama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED479B0-283D-4C35-8BA3-59146FDCD7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1C3D83-5824-4185-9D4F-A46BEF829F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26505" yWindow="3150" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26505" yWindow="3150" windowWidth="22110" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Serial</t>
   </si>
@@ -43,13 +43,76 @@
     <t>Адрес</t>
   </si>
   <si>
+    <t>Название продукта</t>
+  </si>
+  <si>
+    <t>Ед. изм.</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
     <t>1111</t>
   </si>
   <si>
-    <t>30.11.2024</t>
-  </si>
-  <si>
-    <t>test4</t>
+    <t>КДВ</t>
+  </si>
+  <si>
+    <t>+7 (986) 707-47-77</t>
+  </si>
+  <si>
+    <t>01.12.2024</t>
+  </si>
+  <si>
+    <t>08.12.2024</t>
+  </si>
+  <si>
+    <t>компотова 9</t>
+  </si>
+  <si>
+    <t>манд</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>qwdfweegrqwfdfgefqwadwqdwqwqd</t>
+  </si>
+  <si>
+    <t>1111-1</t>
+  </si>
+  <si>
+    <t>тыкв</t>
+  </si>
+  <si>
+    <t>цвцвцв</t>
+  </si>
+  <si>
+    <t>1111-2</t>
+  </si>
+  <si>
+    <t>бананы</t>
+  </si>
+  <si>
+    <t>цввц</t>
   </si>
 </sst>
 </file>
@@ -85,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -93,31 +156,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,15 +467,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,47 +506,137 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
